--- a/biology/Neurosciences/Télencéphale/Télencéphale.xlsx
+++ b/biology/Neurosciences/Télencéphale/Télencéphale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9lenc%C3%A9phale</t>
+          <t>Télencéphale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le télencéphale désigne, en neuroanatomie des chordés, l'ensemble constitué par les hémisphères cérébraux (cortex cérébral, substance blanche et structures sous-corticales) et des structures associées. Chez l'humain, il pèse entre 1 200  et   2 000 g, ce qui en fait la structure la plus développée de son encéphale. Il se compose de deux hémisphères reliés par des ponts de substances blanches appelés commissures inter-hémisphériques, tel le corps calleux.
 Le télencéphale apparaît au stade à 5 vésicules du neurodéveloppement embryonnaire, lorsque le prosencéphale se divise en deux, la partie rostrale formant le télencéphale et la partie caudale donnant le diencéphale. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9lenc%C3%A9phale</t>
+          <t>Télencéphale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Vésicules de l'encéphale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Télencéphale
 Diencéphale
